--- a/storage/excel_templates/pl_gr.xlsx
+++ b/storage/excel_templates/pl_gr.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OpenServer\domains\cpsportal\storage\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507599F2-3D20-421F-B5DA-5727019619B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37CFB2B-09E1-41EC-BBB1-F4623E35B65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -268,13 +268,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -504,16 +504,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="70.7109375" style="1" customWidth="1"/>
     <col min="2" max="4" width="10.7109375" style="1" customWidth="1"/>
@@ -640,49 +638,49 @@
       <c r="P10" s="21"/>
     </row>
     <row r="11" spans="1:16" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
     </row>
     <row r="12" spans="1:16" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A11:P11"/>
     <mergeCell ref="A12:P12"/>
   </mergeCells>
-  <pageMargins left="1.1023622047244095" right="0.31496062992125984" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="54" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="1.1023622047244099" right="0.31496062992126" top="0.55118110236220497" bottom="0.55118110236220497" header="0.31496062992126" footer="0.31496062992126"/>
+  <pageSetup paperSize="8" scale="45" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/storage/excel_templates/pl_gr.xlsx
+++ b/storage/excel_templates/pl_gr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OpenServer\domains\cpsportal\storage\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37CFB2B-09E1-41EC-BBB1-F4623E35B65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F99E13-3FF7-44F6-A142-BA5CA0FB43BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Worksheet!$A$1:$P$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Worksheet!$A$1:$P$78</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -34,14 +34,14 @@
     <t>УТВЕРЖДАЮ</t>
   </si>
   <si>
-    <t>№ 60/105 от 01.04.2024г</t>
-  </si>
-  <si>
     <t>"___"________ &amp;year г.</t>
   </si>
   <si>
     <t>План-график проведения технического обслуживания и ремонта систем пожарной сигнализации, автоматики пожаротушения 
 и систем оповещения и управления эвакуацией</t>
+  </si>
+  <si>
+    <t>№ 60/325 от 11.10.2024г</t>
   </si>
 </sst>
 </file>
@@ -190,11 +190,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -245,12 +244,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -504,11 +497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A2:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -516,164 +511,157 @@
     <col min="1" max="1" width="70.7109375" style="1" customWidth="1"/>
     <col min="2" max="4" width="10.7109375" style="1" customWidth="1"/>
     <col min="5" max="16" width="20.7109375" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="5"/>
+    <col min="17" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="4"/>
+      <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="3"/>
-      <c r="P3" s="4"/>
+      <c r="P3" s="3"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="9"/>
+      <c r="M6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="23"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="11"/>
+    </row>
+    <row r="7" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="12"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="9"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="14"/>
+    </row>
+    <row r="8" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="15"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="9"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="14"/>
+    </row>
+    <row r="9" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="15"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="9"/>
+      <c r="M9" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="3"/>
-      <c r="P4" s="4"/>
-    </row>
-    <row r="5" spans="1:16" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P5" s="6"/>
-    </row>
-    <row r="6" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="M6" s="18"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="12"/>
-    </row>
-    <row r="7" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="13"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="15"/>
-    </row>
-    <row r="8" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="16"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="15"/>
-    </row>
-    <row r="9" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="16"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="25" t="s">
+      <c r="N9" s="26"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="20"/>
+    </row>
+    <row r="10" spans="1:16" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="8"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="20"/>
+    </row>
+    <row r="11" spans="1:16" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="24"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="21"/>
-    </row>
-    <row r="10" spans="1:16" ht="75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="9"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="21"/>
-    </row>
-    <row r="11" spans="1:16" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
     </row>
     <row r="12" spans="1:16" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -681,6 +669,6 @@
     <mergeCell ref="A12:P12"/>
   </mergeCells>
   <pageMargins left="1.1023622047244099" right="0.31496062992126" top="0.55118110236220497" bottom="0.55118110236220497" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup paperSize="8" scale="45" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="54" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>